--- a/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -694,13 +694,13 @@
         <v>5.41</v>
       </c>
       <c r="J2">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="K2">
-        <v>4.14</v>
+        <v>3.85</v>
       </c>
       <c r="L2">
-        <v>5.53</v>
+        <v>5.05</v>
       </c>
       <c r="M2">
         <v>1.35</v>
@@ -825,13 +825,13 @@
         <v>2.5</v>
       </c>
       <c r="J3">
-        <v>6.72</v>
+        <v>6.2</v>
       </c>
       <c r="K3">
-        <v>4.25</v>
+        <v>3.99</v>
       </c>
       <c r="L3">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -852,10 +852,10 @@
         <v>3.32</v>
       </c>
       <c r="S3">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>1.73</v>

--- a/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -694,13 +694,13 @@
         <v>5.41</v>
       </c>
       <c r="J2">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="K2">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L2">
-        <v>5.05</v>
+        <v>4.33</v>
       </c>
       <c r="M2">
         <v>1.35</v>
@@ -721,10 +721,10 @@
         <v>3.56</v>
       </c>
       <c r="S2">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U2">
         <v>1.78</v>
@@ -825,13 +825,13 @@
         <v>2.5</v>
       </c>
       <c r="J3">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>3.99</v>
+        <v>4.33</v>
       </c>
       <c r="L3">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -852,7 +852,7 @@
         <v>3.32</v>
       </c>
       <c r="S3">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
         <v>1.95</v>

--- a/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -742,10 +742,10 @@
         <v>2.22</v>
       </c>
       <c r="Z2">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AA2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>1.51</v>
@@ -825,10 +825,10 @@
         <v>2.5</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="L3">
         <v>1.4</v>
@@ -852,10 +852,10 @@
         <v>3.32</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -873,10 +873,10 @@
         <v>1.23</v>
       </c>
       <c r="Z3">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AA3">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AB3">
         <v>1.49</v>
